--- a/manuscript/v2.0/Table2_Assembly_Stats.xlsx
+++ b/manuscript/v2.0/Table2_Assembly_Stats.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Projects\Dresequencing\Dreseq_github\manuscript\firstDraft\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\corrinne\D_Cottons_USDA\manuscript\v2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>Total length</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>G. laxum</t>
-  </si>
-  <si>
-    <t>G. turnerii</t>
   </si>
   <si>
     <t>G. schwendimanii</t>
@@ -169,6 +166,12 @@
   </si>
   <si>
     <t>Paterson 2012</t>
+  </si>
+  <si>
+    <t>G. turneri</t>
+  </si>
+  <si>
+    <t>Table 2: Statistics for the best assembled accession.</t>
   </si>
 </sst>
 </file>
@@ -252,7 +255,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -298,6 +301,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -580,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A15"/>
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,692 +612,712 @@
     <col min="16" max="16384" width="43.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+    </row>
+    <row r="2" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="D2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="5" t="s">
+      <c r="M2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="14">
-        <v>1033</v>
-      </c>
-      <c r="F2" s="15">
-        <v>70.71302</v>
-      </c>
-      <c r="G2" s="15">
-        <v>761.40612099999998</v>
-      </c>
-      <c r="H2" s="15">
-        <v>754.79919700000005</v>
-      </c>
-      <c r="I2" s="15">
-        <v>753.82448599999998</v>
-      </c>
-      <c r="J2" s="15">
-        <v>761.40612099999998</v>
-      </c>
-      <c r="K2" s="14">
-        <v>880</v>
-      </c>
-      <c r="L2" s="16">
-        <v>0.86523422840909092</v>
-      </c>
-      <c r="M2" s="15">
-        <v>62.175168999999997</v>
-      </c>
-      <c r="N2" s="14">
-        <v>6</v>
-      </c>
-      <c r="O2" s="17">
-        <v>1.74828E-2</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
-      <c r="B3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="7">
-        <v>1431</v>
-      </c>
-      <c r="F3" s="8">
-        <v>53.834484000000003</v>
-      </c>
-      <c r="G3" s="8">
-        <v>589.99376900000004</v>
-      </c>
-      <c r="H3" s="12">
-        <v>585.86819300000002</v>
-      </c>
-      <c r="I3" s="8">
-        <v>585.78532399999995</v>
-      </c>
-      <c r="J3" s="8">
-        <v>592.04354499999999</v>
-      </c>
-      <c r="K3" s="7">
+      <c r="D3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="14">
+        <v>1033</v>
+      </c>
+      <c r="F3" s="15">
+        <v>70.71302</v>
+      </c>
+      <c r="G3" s="15">
+        <v>761.40612099999998</v>
+      </c>
+      <c r="H3" s="15">
+        <v>754.79919700000005</v>
+      </c>
+      <c r="I3" s="15">
+        <v>753.82448599999998</v>
+      </c>
+      <c r="J3" s="15">
+        <v>761.40612099999998</v>
+      </c>
+      <c r="K3" s="14">
         <v>880</v>
       </c>
-      <c r="L3" s="10">
-        <v>0.67277675568181816</v>
-      </c>
-      <c r="M3" s="8">
-        <v>48.45478</v>
-      </c>
-      <c r="N3" s="6">
+      <c r="L3" s="16">
+        <v>0.86523422840909092</v>
+      </c>
+      <c r="M3" s="15">
+        <v>62.175168999999997</v>
+      </c>
+      <c r="N3" s="14">
         <v>6</v>
       </c>
-      <c r="O3" s="9">
-        <v>0.13517280000000001</v>
+      <c r="O3" s="17">
+        <v>1.74828E-2</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" s="7">
-        <v>13359</v>
+        <v>1431</v>
       </c>
       <c r="F4" s="8">
-        <v>55.084372000000002</v>
+        <v>53.834484000000003</v>
       </c>
       <c r="G4" s="8">
-        <v>645.02973199999997</v>
+        <v>589.99376900000004</v>
       </c>
       <c r="H4" s="12">
-        <v>600.41446800000006</v>
+        <v>585.86819300000002</v>
       </c>
       <c r="I4" s="8">
-        <v>599.97368300000005</v>
+        <v>585.78532399999995</v>
       </c>
       <c r="J4" s="8">
-        <v>671.69758300000001</v>
+        <v>592.04354499999999</v>
       </c>
       <c r="K4" s="7">
-        <v>856</v>
+        <v>880</v>
       </c>
       <c r="L4" s="10">
-        <v>0.78469343808411218</v>
+        <v>0.67277675568181816</v>
       </c>
       <c r="M4" s="8">
-        <v>47.591811999999997</v>
+        <v>48.45478</v>
       </c>
       <c r="N4" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O4" s="9">
-        <v>0.1485194</v>
+        <v>0.13517280000000001</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E5" s="7">
-        <v>20602</v>
+        <v>13359</v>
       </c>
       <c r="F5" s="8">
-        <v>52.423726000000002</v>
+        <v>55.084372000000002</v>
       </c>
       <c r="G5" s="8">
-        <v>615.99028999999996</v>
+        <v>645.02973199999997</v>
       </c>
       <c r="H5" s="12">
-        <v>541.69036500000004</v>
+        <v>600.41446800000006</v>
       </c>
       <c r="I5" s="8">
-        <v>540.67362800000001</v>
+        <v>599.97368300000005</v>
       </c>
       <c r="J5" s="8">
-        <v>643.05350499999997</v>
+        <v>671.69758300000001</v>
       </c>
       <c r="K5" s="7">
-        <v>910</v>
+        <v>856</v>
       </c>
       <c r="L5" s="10">
-        <v>0.70665220329670331</v>
+        <v>0.78469343808411218</v>
       </c>
       <c r="M5" s="8">
-        <v>43.635976999999997</v>
+        <v>47.591811999999997</v>
       </c>
       <c r="N5" s="6">
         <v>7</v>
       </c>
       <c r="O5" s="9">
-        <v>6.9824700000000003E-2</v>
+        <v>0.1485194</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E6" s="7">
-        <v>18841</v>
+        <v>20602</v>
       </c>
       <c r="F6" s="8">
-        <v>49.150146999999997</v>
+        <v>52.423726000000002</v>
       </c>
       <c r="G6" s="8">
-        <v>742.214563</v>
+        <v>615.99028999999996</v>
       </c>
       <c r="H6" s="12">
-        <v>654.96534099999997</v>
+        <v>541.69036500000004</v>
       </c>
       <c r="I6" s="8">
-        <v>601.54407800000001</v>
+        <v>540.67362800000001</v>
       </c>
       <c r="J6" s="8">
-        <v>774.61564899999996</v>
+        <v>643.05350499999997</v>
       </c>
       <c r="K6" s="7">
         <v>910</v>
       </c>
       <c r="L6" s="10">
-        <v>0.85122598791208792</v>
+        <v>0.70665220329670331</v>
       </c>
       <c r="M6" s="8">
-        <v>33.333058000000001</v>
+        <v>43.635976999999997</v>
       </c>
       <c r="N6" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O6" s="9">
-        <v>1.7256799999999999E-2</v>
+        <v>6.9824700000000003E-2</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="E7" s="7">
-        <v>21813</v>
+        <v>18841</v>
       </c>
       <c r="F7" s="8">
-        <v>52.479931000000001</v>
+        <v>49.150146999999997</v>
       </c>
       <c r="G7" s="8">
-        <v>619.706276</v>
+        <v>742.214563</v>
       </c>
       <c r="H7" s="12">
-        <v>552.01973599999997</v>
+        <v>654.96534099999997</v>
       </c>
       <c r="I7" s="8">
-        <v>551.44880599999999</v>
+        <v>601.54407800000001</v>
       </c>
       <c r="J7" s="8">
-        <v>648.50594899999999</v>
+        <v>774.61564899999996</v>
       </c>
       <c r="K7" s="7">
-        <v>919</v>
+        <v>910</v>
       </c>
       <c r="L7" s="10">
-        <v>0.70566479760609357</v>
+        <v>0.85122598791208792</v>
       </c>
       <c r="M7" s="8">
-        <v>42.901029000000001</v>
+        <v>33.333058000000001</v>
       </c>
       <c r="N7" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O7" s="9">
-        <v>8.2975300000000002E-2</v>
+        <v>1.7256799999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E8" s="7">
-        <v>22383</v>
+        <v>21813</v>
       </c>
       <c r="F8" s="8">
-        <v>53.832436999999999</v>
+        <v>52.479931000000001</v>
       </c>
       <c r="G8" s="8">
-        <v>625.55434300000002</v>
+        <v>619.706276</v>
       </c>
       <c r="H8" s="12">
-        <v>555.17403899999999</v>
+        <v>552.01973599999997</v>
       </c>
       <c r="I8" s="8">
-        <v>554.43737199999998</v>
+        <v>551.44880599999999</v>
       </c>
       <c r="J8" s="8">
-        <v>654.84959200000003</v>
+        <v>648.50594899999999</v>
       </c>
       <c r="K8" s="7">
-        <v>934</v>
+        <v>919</v>
       </c>
       <c r="L8" s="10">
-        <v>0.70112376017130629</v>
+        <v>0.70566479760609357</v>
       </c>
       <c r="M8" s="8">
-        <v>43.644423000000003</v>
+        <v>42.901029000000001</v>
       </c>
       <c r="N8" s="6">
         <v>7</v>
       </c>
       <c r="O8" s="9">
-        <v>8.2507099999999986E-2</v>
+        <v>8.2975300000000002E-2</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="7">
-        <v>16668</v>
+        <v>22383</v>
       </c>
       <c r="F9" s="8">
-        <v>60.537475000000001</v>
+        <v>53.832436999999999</v>
       </c>
       <c r="G9" s="8">
-        <v>689.25196100000005</v>
+        <v>625.55434300000002</v>
       </c>
       <c r="H9" s="12">
-        <v>623.49255800000003</v>
+        <v>555.17403899999999</v>
       </c>
       <c r="I9" s="8">
-        <v>621.54610400000001</v>
+        <v>554.43737199999998</v>
       </c>
       <c r="J9" s="8">
-        <v>720.30808300000001</v>
+        <v>654.84959200000003</v>
       </c>
       <c r="K9" s="7">
         <v>934</v>
       </c>
       <c r="L9" s="10">
-        <v>0.77120779764453962</v>
+        <v>0.70112376017130629</v>
       </c>
       <c r="M9" s="8">
-        <v>48.549619</v>
+        <v>43.644423000000003</v>
       </c>
       <c r="N9" s="6">
         <v>7</v>
       </c>
       <c r="O9" s="9">
-        <v>0.13089190000000001</v>
+        <v>8.2507099999999986E-2</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="7">
+        <v>16668</v>
+      </c>
+      <c r="F10" s="8">
+        <v>60.537475000000001</v>
+      </c>
+      <c r="G10" s="8">
+        <v>689.25196100000005</v>
+      </c>
+      <c r="H10" s="12">
+        <v>623.49255800000003</v>
+      </c>
+      <c r="I10" s="8">
+        <v>621.54610400000001</v>
+      </c>
+      <c r="J10" s="8">
+        <v>720.30808300000001</v>
+      </c>
+      <c r="K10" s="7">
+        <v>934</v>
+      </c>
+      <c r="L10" s="10">
+        <v>0.77120779764453962</v>
+      </c>
+      <c r="M10" s="8">
+        <v>48.549619</v>
+      </c>
+      <c r="N10" s="6">
         <v>7</v>
       </c>
-      <c r="E10" s="7">
-        <v>18906</v>
-      </c>
-      <c r="F10" s="8">
-        <v>52.316017000000002</v>
-      </c>
-      <c r="G10" s="8">
-        <v>623.31234300000006</v>
-      </c>
-      <c r="H10" s="12">
-        <v>526.16353800000002</v>
-      </c>
-      <c r="I10" s="8">
-        <v>513.54110900000001</v>
-      </c>
-      <c r="J10" s="8">
-        <v>651.40689099999997</v>
-      </c>
-      <c r="K10" s="7">
-        <v>929</v>
-      </c>
-      <c r="L10" s="10">
-        <v>0.70119148654467167</v>
-      </c>
-      <c r="M10" s="8">
-        <v>40.290646000000002</v>
-      </c>
-      <c r="N10" s="6">
-        <v>8</v>
-      </c>
       <c r="O10" s="9">
-        <v>4.8372299999999993E-2</v>
+        <v>0.13089190000000001</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" s="7">
-        <v>15309</v>
+        <v>18906</v>
       </c>
       <c r="F11" s="8">
-        <v>47.599528999999997</v>
+        <v>52.316017000000002</v>
       </c>
       <c r="G11" s="8">
-        <v>582.18517299999996</v>
+        <v>623.31234300000006</v>
       </c>
       <c r="H11" s="12">
-        <v>505.27475500000003</v>
+        <v>526.16353800000002</v>
       </c>
       <c r="I11" s="8">
-        <v>498.79858100000001</v>
+        <v>513.54110900000001</v>
       </c>
       <c r="J11" s="8">
-        <v>605.20754199999999</v>
+        <v>651.40689099999997</v>
       </c>
       <c r="K11" s="7">
-        <v>841</v>
+        <v>929</v>
       </c>
       <c r="L11" s="10">
-        <v>0.71962846848989293</v>
+        <v>0.70119148654467167</v>
       </c>
       <c r="M11" s="8">
-        <v>37.862023000000001</v>
+        <v>40.290646000000002</v>
       </c>
       <c r="N11" s="6">
         <v>8</v>
       </c>
       <c r="O11" s="9">
-        <v>4.2159599999999998E-2</v>
+        <v>4.8372299999999993E-2</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E12" s="7">
-        <v>14099</v>
+        <v>15309</v>
       </c>
       <c r="F12" s="8">
-        <v>44.525840000000002</v>
+        <v>47.599528999999997</v>
       </c>
       <c r="G12" s="8">
-        <v>562.97539400000005</v>
+        <v>582.18517299999996</v>
       </c>
       <c r="H12" s="12">
-        <v>483.411203</v>
+        <v>505.27475500000003</v>
       </c>
       <c r="I12" s="8">
-        <v>474.98127399999998</v>
+        <v>498.79858100000001</v>
       </c>
       <c r="J12" s="8">
-        <v>586.045481</v>
+        <v>605.20754199999999</v>
       </c>
       <c r="K12" s="7">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="L12" s="10">
-        <v>0.68865508930669794</v>
+        <v>0.71962846848989293</v>
       </c>
       <c r="M12" s="8">
-        <v>36.147297000000002</v>
+        <v>37.862023000000001</v>
       </c>
       <c r="N12" s="6">
         <v>8</v>
       </c>
       <c r="O12" s="9">
-        <v>4.8349799999999998E-2</v>
+        <v>4.2159599999999998E-2</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E13" s="7">
-        <v>16779</v>
+        <v>14099</v>
       </c>
       <c r="F13" s="8">
-        <v>48.055379000000002</v>
+        <v>44.525840000000002</v>
       </c>
       <c r="G13" s="8">
-        <v>603.63747699999999</v>
+        <v>562.97539400000005</v>
       </c>
       <c r="H13" s="12">
-        <v>517.18573900000001</v>
+        <v>483.411203</v>
       </c>
       <c r="I13" s="8">
-        <v>506.660166</v>
+        <v>474.98127399999998</v>
       </c>
       <c r="J13" s="8">
-        <v>629.89275599999996</v>
+        <v>586.045481</v>
       </c>
       <c r="K13" s="7">
-        <v>910</v>
+        <v>851</v>
       </c>
       <c r="L13" s="10">
-        <v>0.69218984175824172</v>
+        <v>0.68865508930669794</v>
       </c>
       <c r="M13" s="8">
-        <v>38.654556999999997</v>
+        <v>36.147297000000002</v>
       </c>
       <c r="N13" s="6">
         <v>8</v>
       </c>
       <c r="O13" s="9">
-        <v>3.3616399999999998E-2</v>
+        <v>4.8349799999999998E-2</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E14" s="7">
-        <v>16881</v>
+        <v>16779</v>
       </c>
       <c r="F14" s="8">
-        <v>46.262486000000003</v>
+        <v>48.055379000000002</v>
       </c>
       <c r="G14" s="8">
-        <v>569.35066600000005</v>
+        <v>603.63747699999999</v>
       </c>
       <c r="H14" s="12">
-        <v>495.76394299999998</v>
+        <v>517.18573900000001</v>
       </c>
       <c r="I14" s="8">
-        <v>492.766974</v>
+        <v>506.660166</v>
       </c>
       <c r="J14" s="8">
-        <v>596.11546199999998</v>
+        <v>629.89275599999996</v>
       </c>
       <c r="K14" s="7">
-        <v>880</v>
+        <v>910</v>
       </c>
       <c r="L14" s="10">
-        <v>0.67740393409090904</v>
+        <v>0.69218984175824172</v>
       </c>
       <c r="M14" s="8">
-        <v>37.841796000000002</v>
+        <v>38.654556999999997</v>
       </c>
       <c r="N14" s="6">
         <v>8</v>
       </c>
       <c r="O14" s="9">
-        <v>4.7958399999999998E-2</v>
+        <v>3.3616399999999998E-2</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E15" s="7">
-        <v>23734</v>
+        <v>16881</v>
       </c>
       <c r="F15" s="8">
-        <v>42.779162999999997</v>
+        <v>46.262486000000003</v>
       </c>
       <c r="G15" s="8">
-        <v>554.55008899999996</v>
+        <v>569.35066600000005</v>
       </c>
       <c r="H15" s="12">
-        <v>446.853745</v>
+        <v>495.76394299999998</v>
       </c>
       <c r="I15" s="8">
-        <v>441.618627</v>
+        <v>492.766974</v>
       </c>
       <c r="J15" s="8">
-        <v>585.40827200000001</v>
+        <v>596.11546199999998</v>
       </c>
       <c r="K15" s="7">
-        <v>841</v>
+        <v>880</v>
       </c>
       <c r="L15" s="10">
-        <v>0.69608593579072531</v>
+        <v>0.67740393409090904</v>
       </c>
       <c r="M15" s="8">
-        <v>33.532705999999997</v>
+        <v>37.841796000000002</v>
       </c>
       <c r="N15" s="6">
         <v>8</v>
       </c>
       <c r="O15" s="9">
+        <v>4.7958399999999998E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="7">
+        <v>23734</v>
+      </c>
+      <c r="F16" s="8">
+        <v>42.779162999999997</v>
+      </c>
+      <c r="G16" s="8">
+        <v>554.55008899999996</v>
+      </c>
+      <c r="H16" s="12">
+        <v>446.853745</v>
+      </c>
+      <c r="I16" s="8">
+        <v>441.618627</v>
+      </c>
+      <c r="J16" s="8">
+        <v>585.40827200000001</v>
+      </c>
+      <c r="K16" s="7">
+        <v>841</v>
+      </c>
+      <c r="L16" s="10">
+        <v>0.69608593579072531</v>
+      </c>
+      <c r="M16" s="8">
+        <v>33.532705999999997</v>
+      </c>
+      <c r="N16" s="6">
+        <v>8</v>
+      </c>
+      <c r="O16" s="9">
         <v>4.0638099999999996E-2</v>
       </c>
     </row>
-    <row r="17" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L17" s="11"/>
+    <row r="18" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L18" s="11"/>
     </row>
   </sheetData>
   <sortState ref="B25:Z43">
     <sortCondition ref="B25:B43"/>
   </sortState>
-  <mergeCells count="1">
-    <mergeCell ref="A1:A15"/>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
